--- a/input/vocabulary/source/2.16.840.1.113762.1.4.1235.417.xlsx
+++ b/input/vocabulary/source/2.16.840.1.113762.1.4.1235.417.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapark/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE19E75-FEF9-BD49-AD83-AAC61DBD7B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Value Set Info" r:id="rId3" sheetId="1"/>
-    <sheet name="Expansion List" r:id="rId4" sheetId="2"/>
+    <sheet name="Value Set Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Expansion List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'Expansion List'!$A$14:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Expansion List'!$A$13:$F$13</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -993,69 +1001,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="18"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="31"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1063,117 +1037,18 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="20558A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="20558A"/>
+        <fgColor rgb="FF20558A"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <right style="thin"/>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1188,81 +1063,45 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment vertical="top" horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="right" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="left" indent="1" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1277,13 +1116,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1304,8 +1149,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1320,13 +1165,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1346,2936 +1197,3262 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <pageSetUpPr fitToPage="true" autoPageBreaks="true"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showGridLines="true"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.0" customWidth="true"/>
-    <col min="2" max="2" width="45.0" customWidth="true"/>
-    <col min="3" max="3" width="30.0" customWidth="true"/>
-    <col min="4" max="4" width="45.0" customWidth="true"/>
-    <col min="5" max="5" width="45.0" customWidth="true"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.0" customHeight="true">
-      <c r="A1" s="22"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="true">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="8">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="8">
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="8">
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="8">
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s" s="12">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="8">
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="8">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" outlineLevel="1">
-      <c r="A18" t="s" s="1">
+    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s" s="1">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s" s="1">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s" s="1">
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="15.0" customHeight="true" outlineLevel="1">
-      <c r="A19" t="s" s="12">
+    <row r="19" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="15.0" customHeight="true" outlineLevel="1">
-      <c r="A20" t="s" s="12">
+    <row r="20" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" ht="15.0" customHeight="true" outlineLevel="1">
-      <c r="A21" t="s" s="12">
+    <row r="21" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" ht="15.0" customHeight="true" outlineLevel="1">
-      <c r="A22" t="s" s="12">
+    <row r="22" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" ht="15.0" customHeight="true" outlineLevel="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s" s="12">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions gridLines="true" horizontalCentered="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" fitToHeight="1" fitToWidth="1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <pageSetUpPr fitToPage="true" autoPageBreaks="true"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="true">
-      <pane ySplit="14.0" state="frozen" topLeftCell="A15" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.0" customWidth="true"/>
-    <col min="2" max="2" width="80.0" customWidth="true"/>
-    <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="25.0" customWidth="true"/>
-    <col min="5" max="5" width="30.0" customWidth="true"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.0" customHeight="true">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="true">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="8">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="8">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s" s="1">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s" s="1">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s" s="1">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s" s="1">
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s" s="1">
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="12">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="12">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="12">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="12">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="12">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="12">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="12">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="12">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="12">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s" s="12">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="12">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="12">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="12">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="12">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s" s="12">
+      <c r="B26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F26" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="12">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F27" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="12">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F29" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="12">
+      <c r="F28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F30" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="12">
+      <c r="F29" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F31" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="F30" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F31" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="12">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F32" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="12">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="12">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="12">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="12">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B37" t="s" s="12">
+      <c r="B36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F36" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="12">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F37" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="12">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s" s="12">
+      <c r="B38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="s" s="12">
+      <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F39" t="s" s="12">
+      <c r="F38" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="12">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="12">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C41" t="s" s="12">
+      <c r="C40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="s" s="12">
+      <c r="D40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="12">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F41" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="12">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="12">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="12">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B45" t="s" s="12">
+      <c r="B44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F44" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="12">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F45" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="12">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="12">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="12">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B48" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="12">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F49" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="12">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s" s="12">
+      <c r="B50" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F50" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="12">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s" s="12">
+      <c r="B51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="12">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C53" t="s" s="12">
+      <c r="C52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D53" t="s" s="12">
+      <c r="D52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="12">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B53" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F53" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="12">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D55" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F55" t="s" s="12">
+      <c r="C54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="12">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C56" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D56" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E56" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F56" t="s" s="12">
+      <c r="C55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="12">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B57" t="s" s="12">
+      <c r="B56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C57" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D57" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E57" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F57" t="s" s="12">
+      <c r="C56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="12">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B57" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D58" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F58" t="s" s="12">
+      <c r="C57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="12">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B58" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D59" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E59" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F59" t="s" s="12">
+      <c r="C58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="12">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B59" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C60" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D60" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E60" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F60" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="C59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B60" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D61" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E61" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F61" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="12">
+      <c r="C60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="s" s="12">
+      <c r="B61" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C62" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D62" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E62" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F62" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="12">
+      <c r="C61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B63" t="s" s="12">
+      <c r="B62" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C63" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E63" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F63" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="12">
+      <c r="C62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B64" t="s" s="12">
+      <c r="B63" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D64" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E64" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F64" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B64" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D65" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F65" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="C64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B65" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D66" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E66" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F66" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="12">
+      <c r="C65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B67" t="s" s="12">
+      <c r="B66" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C67" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D67" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E67" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F67" t="s" s="12">
+      <c r="C66" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="12">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B67" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D68" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E68" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F68" t="s" s="12">
+      <c r="C67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="12">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B68" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D69" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E69" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F69" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="12">
+      <c r="C68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B69" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C70" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D70" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E70" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F70" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="C69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B70" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D71" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E71" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F71" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="C70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B71" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D72" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E72" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F72" t="s" s="12">
+      <c r="C71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="12">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C73" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D73" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E73" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F73" t="s" s="12">
+      <c r="C72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="12">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B74" t="s" s="12">
+      <c r="B73" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D74" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E74" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F74" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="C73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B74" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C75" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D75" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E75" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F75" t="s" s="12">
+      <c r="C74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="12">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B75" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D76" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E76" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F76" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="C75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B76" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D77" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E77" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F77" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="12">
+      <c r="C76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B77" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C78" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D78" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E78" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F78" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="12">
+      <c r="C77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B78" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D79" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E79" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F79" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="12">
+      <c r="C78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B79" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D80" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E80" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F80" t="s" s="12">
+      <c r="C79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="12">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B80" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D81" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E81" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F81" t="s" s="12">
+      <c r="C80" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s" s="12">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B81" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D82" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E82" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F82" t="s" s="12">
+      <c r="C81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="12">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B82" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D83" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E83" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F83" t="s" s="12">
+      <c r="C82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="12">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B83" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D84" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E84" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F84" t="s" s="12">
+      <c r="C83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="12">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B85" t="s" s="12">
+      <c r="B84" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C85" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D85" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E85" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F85" t="s" s="12">
+      <c r="C84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="12">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B85" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D86" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E86" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F86" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="C85" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B86" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D87" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E87" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F87" t="s" s="12">
+      <c r="C86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="12">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B87" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D88" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E88" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F88" t="s" s="12">
+      <c r="C87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s" s="12">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B88" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D89" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E89" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F89" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="C88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B89" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D90" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E90" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F90" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="12">
+      <c r="C89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B91" t="s" s="12">
+      <c r="B90" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C91" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D91" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E91" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F91" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="12">
+      <c r="C90" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B92" t="s" s="12">
+      <c r="B91" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C92" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D92" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E92" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F92" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="12">
+      <c r="C91" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B93" t="s" s="12">
+      <c r="B92" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D93" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E93" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F93" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="C92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B93" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D94" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E94" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F94" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="C93" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B94" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D95" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E95" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F95" t="s" s="12">
+      <c r="C94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s" s="12">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B95" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D96" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E96" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F96" t="s" s="12">
+      <c r="C95" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s" s="12">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B96" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D97" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E97" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F97" t="s" s="12">
+      <c r="C96" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="12">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B97" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C98" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D98" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E98" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F98" t="s" s="12">
+      <c r="C97" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="12">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B99" t="s" s="12">
+      <c r="B98" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C99" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D99" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E99" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F99" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="C98" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B99" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C100" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D100" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E100" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F100" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="C99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B100" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D101" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E101" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F101" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="C100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B101" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D102" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E102" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F102" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="C101" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B102" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D103" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E103" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F103" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="12">
+      <c r="C102" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B104" t="s" s="12">
+      <c r="B103" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D104" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E104" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F104" t="s" s="12">
+      <c r="C103" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="s" s="12">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B104" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D105" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E105" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F105" t="s" s="12">
+      <c r="C104" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s" s="12">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B105" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C106" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D106" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E106" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F106" t="s" s="12">
+      <c r="C105" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s" s="12">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B106" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C107" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D107" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E107" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F107" t="s" s="12">
+      <c r="C106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s" s="12">
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B107" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D108" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E108" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F108" t="s" s="12">
+      <c r="C107" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s" s="12">
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B108" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C109" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D109" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E109" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F109" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="C108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B109" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C110" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D110" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E110" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F110" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="C109" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B110" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D111" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E111" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F111" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="12">
+      <c r="C110" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B112" t="s" s="12">
+      <c r="B111" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C112" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D112" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E112" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F112" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="C111" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B112" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D113" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E113" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F113" t="s" s="12">
+      <c r="C112" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="s" s="12">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B113" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D114" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E114" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F114" t="s" s="12">
+      <c r="C113" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="s" s="12">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B114" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D115" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E115" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F115" t="s" s="12">
+      <c r="C114" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="s" s="12">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B115" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D116" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E116" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F116" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="C115" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B116" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D117" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E117" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F117" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="12">
+      <c r="C116" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B118" t="s" s="12">
+      <c r="B117" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C118" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D118" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E118" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F118" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="C117" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B118" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D119" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E119" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F119" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="12">
+      <c r="C118" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B120" t="s" s="12">
+      <c r="B119" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C120" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D120" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E120" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F120" t="s" s="12">
+      <c r="C119" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="s" s="12">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B120" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D121" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E121" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F121" t="s" s="12">
+      <c r="C120" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="s" s="12">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B121" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D122" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E122" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F122" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="C121" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B122" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D123" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E123" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F123" t="s" s="12">
+      <c r="C122" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="s" s="12">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B123" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D124" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E124" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F124" t="s" s="12">
+      <c r="C123" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s" s="12">
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B125" t="s" s="12">
+      <c r="B124" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C125" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D125" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E125" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F125" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="C124" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B125" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D126" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E126" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F126" t="s" s="12">
+      <c r="C125" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="s" s="12">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B127" t="s" s="12">
+      <c r="B126" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D127" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E127" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F127" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="12">
+      <c r="C126" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B128" t="s" s="12">
+      <c r="B127" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D128" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E128" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F128" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="C127" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B128" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D129" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E129" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F129" t="s" s="12">
+      <c r="C128" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="s" s="12">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B129" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C130" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D130" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E130" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F130" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="12">
+      <c r="C129" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B131" t="s" s="12">
+      <c r="B130" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C131" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D131" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E131" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F131" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="C130" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B131" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D132" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E132" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F132" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="C131" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B132" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D133" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E133" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F133" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="C132" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B133" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D134" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="E134" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="F134" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="C133" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B134" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C134" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D134" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E134" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F134" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="s" s="12">
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B136" t="s" s="12">
+      <c r="B135" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C135" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D135" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E135" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F135" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="s" s="12">
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B137" t="s" s="12">
+      <c r="B136" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C136" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D136" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E136" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F137" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="F136" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B137" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C137" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D137" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E137" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F138" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="F137" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B138" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C139" t="s" s="12">
+      <c r="C138" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D139" t="s" s="12">
+      <c r="D138" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E138" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F139" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="F138" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B139" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C139" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D139" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E139" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F139" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="s" s="12">
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B140" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C140" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D140" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E140" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F141" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="F140" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B141" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C141" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D141" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E141" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F141" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="s" s="12">
+    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B143" t="s" s="12">
+      <c r="B142" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C142" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D142" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E142" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F142" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="s" s="12">
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B143" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C143" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D143" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E143" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F143" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="s" s="12">
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B145" t="s" s="12">
+      <c r="B144" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C144" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D145" t="s" s="12">
+      <c r="D144" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E144" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F144" s="3" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A14:F14"/>
-  <mergeCells>
+  <autoFilter ref="A13:F13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions gridLines="true" horizontalCentered="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" fitToHeight="1" fitToWidth="1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>